--- a/Code/Results/Cases/Case_1_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.245218689160901</v>
+        <v>7.810333919920698</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.392370025092234</v>
+        <v>4.670121255836118</v>
       </c>
       <c r="E2">
-        <v>13.07622249575129</v>
+        <v>12.62814539877288</v>
       </c>
       <c r="F2">
-        <v>18.8494555890704</v>
+        <v>23.6761467110982</v>
       </c>
       <c r="G2">
-        <v>2.07447566390372</v>
+        <v>3.623872999658669</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.99827999197565</v>
+        <v>10.61131047499369</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.60073614940329</v>
+        <v>13.50365642178098</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.84823124076995</v>
+        <v>21.13064648655152</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.888379387848512</v>
+        <v>7.73932860670066</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.273335319029662</v>
+        <v>4.627492141058521</v>
       </c>
       <c r="E3">
-        <v>12.39225922184493</v>
+        <v>12.50573201948791</v>
       </c>
       <c r="F3">
-        <v>18.34997506328872</v>
+        <v>23.67862014319258</v>
       </c>
       <c r="G3">
-        <v>2.080037134280318</v>
+        <v>3.625934337218601</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.15929073124203</v>
+        <v>10.19064380165904</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.55948047198382</v>
+        <v>13.24624243000257</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.70360311096524</v>
+        <v>21.19105739484059</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.663204051780615</v>
+        <v>7.697271464954541</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.198233494244705</v>
+        <v>4.600815314209901</v>
       </c>
       <c r="E4">
-        <v>11.96842858277324</v>
+        <v>12.43493596842788</v>
       </c>
       <c r="F4">
-        <v>18.05847520370641</v>
+        <v>23.68788812236721</v>
       </c>
       <c r="G4">
-        <v>2.083551857804348</v>
+        <v>3.627266792985701</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.61998710273958</v>
+        <v>9.921425676798517</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.88697953882185</v>
+        <v>13.08857049185581</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.63141328353437</v>
+        <v>21.23401836597061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.570043159820338</v>
+        <v>7.680539020038377</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.167149272962164</v>
+        <v>4.589823146800896</v>
       </c>
       <c r="E5">
-        <v>11.79495864449313</v>
+        <v>12.40721548350868</v>
       </c>
       <c r="F5">
-        <v>17.9435816530703</v>
+        <v>23.69361024634976</v>
       </c>
       <c r="G5">
-        <v>2.08501000894322</v>
+        <v>3.627826627991773</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.39425170982488</v>
+        <v>9.809069939572721</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.604581552138</v>
+        <v>13.02450266791046</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.60603740887939</v>
+        <v>21.25299516830934</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.554493423613042</v>
+        <v>7.677785678071267</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.161959622983741</v>
+        <v>4.587990741625355</v>
       </c>
       <c r="E6">
-        <v>11.76611560876482</v>
+        <v>12.40268160212567</v>
       </c>
       <c r="F6">
-        <v>17.9247409033171</v>
+        <v>23.69467776857839</v>
       </c>
       <c r="G6">
-        <v>2.085253717354405</v>
+        <v>3.627920607377865</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.35641205526593</v>
+        <v>9.790256676344036</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.55718545881303</v>
+        <v>13.0138780348347</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.60206372791752</v>
+        <v>21.25623485099378</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.661953137159767</v>
+        <v>7.697044136413306</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.197816186393339</v>
+        <v>4.600667553623904</v>
       </c>
       <c r="E7">
-        <v>11.96609184808546</v>
+        <v>12.43455750747695</v>
       </c>
       <c r="F7">
-        <v>18.05690984617386</v>
+        <v>23.68795742182191</v>
       </c>
       <c r="G7">
-        <v>2.083571417233164</v>
+        <v>3.627274274825552</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.61696674058775</v>
+        <v>9.919920983572817</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.88320482174017</v>
+        <v>13.08770558433181</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.63105487618571</v>
+        <v>21.23426835034035</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.123511515213893</v>
+        <v>7.785543101281153</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.351760243712446</v>
+        <v>4.655530091863184</v>
       </c>
       <c r="E8">
-        <v>12.8413152030907</v>
+        <v>12.58505083084777</v>
       </c>
       <c r="F8">
-        <v>18.67413323098801</v>
+        <v>23.67538968710507</v>
       </c>
       <c r="G8">
-        <v>2.076372968758378</v>
+        <v>3.624569920260346</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.71406892904776</v>
+        <v>10.46858875520209</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.24858410472725</v>
+        <v>13.414873848409</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.79483766085702</v>
+        <v>21.15025478937456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.975823418520473</v>
+        <v>7.97045032340441</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.636606496626514</v>
+        <v>4.75890646769477</v>
       </c>
       <c r="E9">
-        <v>14.51932496453163</v>
+        <v>12.91329313320009</v>
       </c>
       <c r="F9">
-        <v>20.00115933700646</v>
+        <v>23.71230700142138</v>
       </c>
       <c r="G9">
-        <v>2.063014488304156</v>
+        <v>3.619794116976586</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.67027039830452</v>
+        <v>11.45405680522614</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.66421888104548</v>
+        <v>14.05565218924631</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.25328049079359</v>
+        <v>21.03231220238075</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.603692372211443</v>
+        <v>8.112035000801859</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.834252205154376</v>
+        <v>4.832000571096542</v>
       </c>
       <c r="E10">
-        <v>15.7419642750885</v>
+        <v>13.17244973476686</v>
       </c>
       <c r="F10">
-        <v>21.04199526128663</v>
+        <v>23.77695987451093</v>
       </c>
       <c r="G10">
-        <v>2.053609060080876</v>
+        <v>3.616603379812751</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.98542430380791</v>
+        <v>12.11870008007091</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.28221464141539</v>
+        <v>14.52099331408035</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.6804010583537</v>
+        <v>20.97450598011496</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.915234224094032</v>
+        <v>8.177429290007133</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.921424877307087</v>
+        <v>4.864572995945374</v>
       </c>
       <c r="E11">
-        <v>16.37492061805052</v>
+        <v>13.29375008897548</v>
       </c>
       <c r="F11">
-        <v>21.52876441699828</v>
+        <v>23.81448606556001</v>
       </c>
       <c r="G11">
-        <v>2.049406458679732</v>
+        <v>3.615220148726813</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.55695951739738</v>
+        <v>12.40747928166741</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.98512525306494</v>
+        <v>14.73052144936299</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.89550963244598</v>
+        <v>20.9545299680001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.030825026257718</v>
+        <v>8.202312172244183</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.954026168869208</v>
+        <v>4.876804853292209</v>
       </c>
       <c r="E12">
-        <v>16.61158509483698</v>
+        <v>13.34012955915126</v>
       </c>
       <c r="F12">
-        <v>21.71492799662943</v>
+        <v>23.8298574024854</v>
       </c>
       <c r="G12">
-        <v>2.047824837796179</v>
+        <v>3.614706113193372</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.76953870585459</v>
+        <v>12.51483463346793</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.24662266294377</v>
+        <v>14.80947687001712</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.9800423125335</v>
+        <v>20.94787840969867</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.006035953413608</v>
+        <v>8.196948240561078</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.947023315927084</v>
+        <v>4.874175146759281</v>
       </c>
       <c r="E13">
-        <v>16.56074768612043</v>
+        <v>13.33012180535168</v>
       </c>
       <c r="F13">
-        <v>21.67475378506199</v>
+        <v>23.82649538871948</v>
       </c>
       <c r="G13">
-        <v>2.048165050364474</v>
+        <v>3.614816386482215</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.72392707346341</v>
+        <v>12.49180332692367</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.19051118949007</v>
+        <v>14.79249087601116</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.9616986371252</v>
+        <v>20.94927027978848</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.924791526090194</v>
+        <v>8.179474153265261</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.924115285235877</v>
+        <v>4.865581403208333</v>
       </c>
       <c r="E14">
-        <v>16.39445104172637</v>
+        <v>13.29755708157592</v>
       </c>
       <c r="F14">
-        <v>21.54404381754938</v>
+        <v>23.8157274473085</v>
       </c>
       <c r="G14">
-        <v>2.049276147792239</v>
+        <v>3.615177663315462</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.57452564672559</v>
+        <v>12.41635178194752</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.00673206867361</v>
+        <v>14.73702537402364</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.90240209126531</v>
+        <v>20.95396442241485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.874717562672959</v>
+        <v>8.168785666197165</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.91002975491083</v>
+        <v>4.860303976154369</v>
       </c>
       <c r="E15">
-        <v>16.29219943031104</v>
+        <v>13.27766695312312</v>
       </c>
       <c r="F15">
-        <v>21.4642171216035</v>
+        <v>23.80928275933345</v>
       </c>
       <c r="G15">
-        <v>2.049957970503584</v>
+        <v>3.615400225886606</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.4825118389839</v>
+        <v>12.36987390744017</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.89355530661097</v>
+        <v>14.7029983361613</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.86648415265029</v>
+        <v>20.95695872218528</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.582997087201354</v>
+        <v>8.107779269974298</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.828498810303084</v>
+        <v>4.829857799526931</v>
       </c>
       <c r="E16">
-        <v>15.70016992757187</v>
+        <v>13.16458727547292</v>
       </c>
       <c r="F16">
-        <v>21.01044428959112</v>
+        <v>23.77467027786859</v>
       </c>
       <c r="G16">
-        <v>2.053885145677488</v>
+        <v>3.616695146291188</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.94753446838906</v>
+        <v>12.09955036265981</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.23561812757425</v>
+        <v>14.50724996854831</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.66676923553484</v>
+        <v>20.97593899976133</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.399756201152424</v>
+        <v>8.070590603235061</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.77776940457234</v>
+        <v>4.81100265362749</v>
       </c>
       <c r="E17">
-        <v>15.37498942240535</v>
+        <v>13.09605819019162</v>
       </c>
       <c r="F17">
-        <v>20.73541392956658</v>
+        <v>23.75551145240906</v>
       </c>
       <c r="G17">
-        <v>2.056313035072931</v>
+        <v>3.617506982831623</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.61248815722206</v>
+        <v>11.93020358438021</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.82356701943614</v>
+        <v>14.38655514794496</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.54964205480915</v>
+        <v>20.98920462459451</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.30907702438199</v>
+        <v>8.049294883859105</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.748334323610908</v>
+        <v>4.800094107878205</v>
       </c>
       <c r="E18">
-        <v>15.1953265767201</v>
+        <v>13.0569656419063</v>
       </c>
       <c r="F18">
-        <v>20.57847820875347</v>
+        <v>23.74525611959747</v>
       </c>
       <c r="G18">
-        <v>2.057716715464256</v>
+        <v>3.617980356856376</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.41726128432345</v>
+        <v>11.83152482484608</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.58344263053151</v>
+        <v>14.31693597836464</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.48422782405877</v>
+        <v>20.99742934774484</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.279246413608407</v>
+        <v>8.042101383908445</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.738324501112753</v>
+        <v>4.796389900517979</v>
       </c>
       <c r="E19">
-        <v>15.13437746776934</v>
+        <v>13.04378649374059</v>
       </c>
       <c r="F19">
-        <v>20.52556048471487</v>
+        <v>23.7419152661943</v>
       </c>
       <c r="G19">
-        <v>2.058193250510985</v>
+        <v>3.618141738572596</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.35072886826233</v>
+        <v>11.79789649179477</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.50160181665592</v>
+        <v>14.29333244334867</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.4624126681783</v>
+        <v>21.00031610365776</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.41942612234765</v>
+        <v>8.07453981141213</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.78319634039421</v>
+        <v>4.813016431786887</v>
       </c>
       <c r="E20">
-        <v>15.4081844614967</v>
+        <v>13.10332006025461</v>
       </c>
       <c r="F20">
-        <v>20.76456214744726</v>
+        <v>23.75747187595892</v>
       </c>
       <c r="G20">
-        <v>2.056053842369538</v>
+        <v>3.617419896629497</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.64841499446023</v>
+        <v>11.94836316190331</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.86775326348985</v>
+        <v>14.39942446115658</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.56190756155751</v>
+        <v>20.98773089726815</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.948719404582604</v>
+        <v>8.184603651890002</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.930855144778763</v>
+        <v>4.868108418514015</v>
       </c>
       <c r="E21">
-        <v>16.44337747986654</v>
+        <v>13.30711039334052</v>
       </c>
       <c r="F21">
-        <v>21.5823872400516</v>
+        <v>23.81885880025322</v>
       </c>
       <c r="G21">
-        <v>2.048949534520106</v>
+        <v>3.615071282957796</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.61851288886924</v>
+        <v>12.4385683267906</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.06083873089185</v>
+        <v>14.75332807659477</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.91973481893477</v>
+        <v>20.9525608324966</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.280767023137239</v>
+        <v>8.257222838149779</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.024968459542284</v>
+        <v>4.903513859286674</v>
       </c>
       <c r="E22">
-        <v>17.12672645028059</v>
+        <v>13.44287575569237</v>
       </c>
       <c r="F22">
-        <v>22.1275536664309</v>
+        <v>23.86574180633866</v>
       </c>
       <c r="G22">
-        <v>2.044363075726999</v>
+        <v>3.613593217441117</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.23010168200673</v>
+        <v>12.74727660743911</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.81335980149901</v>
+        <v>14.98232787498014</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.17155773515129</v>
+        <v>20.93489791215674</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.104805689118052</v>
+        <v>8.218409219722908</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.974961674751762</v>
+        <v>4.88467387715712</v>
       </c>
       <c r="E23">
-        <v>16.76357622704</v>
+        <v>13.37019432830507</v>
       </c>
       <c r="F23">
-        <v>21.83563264198011</v>
+        <v>23.84010306273787</v>
       </c>
       <c r="G23">
-        <v>2.046806165433816</v>
+        <v>3.614376900004724</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.90573516978456</v>
+        <v>12.58359478313889</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.41418602746169</v>
+        <v>14.86034118900674</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.03548566391257</v>
+        <v>20.94383669913239</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.41053843296797</v>
+        <v>8.072754109363292</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.780743662717661</v>
+        <v>4.812106215556767</v>
       </c>
       <c r="E24">
-        <v>15.3931794020932</v>
+        <v>13.10003601309691</v>
       </c>
       <c r="F24">
-        <v>20.75138054768635</v>
+        <v>23.75658320273073</v>
       </c>
       <c r="G24">
-        <v>2.056170998842771</v>
+        <v>3.617459247618859</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.63218058262522</v>
+        <v>11.94015732179708</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.84778673170396</v>
+        <v>14.3936069554078</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.55635634029666</v>
+        <v>20.98839530649119</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.751473035708233</v>
+        <v>7.919333207619863</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.561509531708439</v>
+        <v>4.731421373684638</v>
       </c>
       <c r="E25">
-        <v>14.07037352881385</v>
+        <v>12.82116773037839</v>
       </c>
       <c r="F25">
-        <v>19.63021749577417</v>
+        <v>23.69572255851478</v>
       </c>
       <c r="G25">
-        <v>2.066552441113655</v>
+        <v>3.621029995514723</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.16235820498933</v>
+        <v>11.19762445359406</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.03851442195895</v>
+        <v>13.88291278595871</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.11383662380387</v>
+        <v>21.05917393953174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.810333919920698</v>
+        <v>7.245218689160941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.670121255836118</v>
+        <v>4.392370025092241</v>
       </c>
       <c r="E2">
-        <v>12.62814539877288</v>
+        <v>13.07622249575128</v>
       </c>
       <c r="F2">
-        <v>23.6761467110982</v>
+        <v>18.8494555890704</v>
       </c>
       <c r="G2">
-        <v>3.623872999658669</v>
+        <v>2.074475663903454</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.61131047499369</v>
+        <v>15.99827999197567</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.50365642178098</v>
+        <v>16.60073614940329</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.13064648655152</v>
+        <v>14.84823124076994</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.73932860670066</v>
+        <v>6.88837938784854</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.627492141058521</v>
+        <v>4.273335319029662</v>
       </c>
       <c r="E3">
-        <v>12.50573201948791</v>
+        <v>12.39225922184499</v>
       </c>
       <c r="F3">
-        <v>23.67862014319258</v>
+        <v>18.34997506328874</v>
       </c>
       <c r="G3">
-        <v>3.625934337218601</v>
+        <v>2.080037134280318</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.19064380165904</v>
+        <v>15.15929073124201</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.24624243000257</v>
+        <v>15.55948047198378</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.19105739484059</v>
+        <v>14.70360311096525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.697271464954541</v>
+        <v>6.663204051780601</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.600815314209901</v>
+        <v>4.198233494244827</v>
       </c>
       <c r="E4">
-        <v>12.43493596842788</v>
+        <v>11.96842858277327</v>
       </c>
       <c r="F4">
-        <v>23.68788812236721</v>
+        <v>18.05847520370638</v>
       </c>
       <c r="G4">
-        <v>3.627266792985701</v>
+        <v>2.083551857804481</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.921425676798517</v>
+        <v>14.61998710273956</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.08857049185581</v>
+        <v>14.88697953882182</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.23401836597061</v>
+        <v>14.63141328353435</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.680539020038377</v>
+        <v>6.570043159820307</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.589823146800896</v>
+        <v>4.167149272962052</v>
       </c>
       <c r="E5">
-        <v>12.40721548350868</v>
+        <v>11.79495864449313</v>
       </c>
       <c r="F5">
-        <v>23.69361024634976</v>
+        <v>17.94358165307018</v>
       </c>
       <c r="G5">
-        <v>3.627826627991773</v>
+        <v>2.085010008943354</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.809069939572721</v>
+        <v>14.3942517098249</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.02450266791046</v>
+        <v>14.60458155213803</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.25299516830934</v>
+        <v>14.60603740887924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.677785678071267</v>
+        <v>6.554493423613071</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.587990741625355</v>
+        <v>4.161959622983683</v>
       </c>
       <c r="E6">
-        <v>12.40268160212567</v>
+        <v>11.76611560876483</v>
       </c>
       <c r="F6">
-        <v>23.69467776857839</v>
+        <v>17.92474090331702</v>
       </c>
       <c r="G6">
-        <v>3.627920607377865</v>
+        <v>2.085253717354671</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.790256676344036</v>
+        <v>14.35641205526598</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.0138780348347</v>
+        <v>14.55718545881307</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.25623485099378</v>
+        <v>14.60206372791738</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.697044136413306</v>
+        <v>6.661953137159736</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.600667553623904</v>
+        <v>4.197816186393236</v>
       </c>
       <c r="E7">
-        <v>12.43455750747695</v>
+        <v>11.96609184808543</v>
       </c>
       <c r="F7">
-        <v>23.68795742182191</v>
+        <v>18.05690984617387</v>
       </c>
       <c r="G7">
-        <v>3.627274274825552</v>
+        <v>2.083571417233298</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.919920983572817</v>
+        <v>14.61696674058773</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.08770558433181</v>
+        <v>14.88320482174017</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.23426835034035</v>
+        <v>14.63105487618567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.785543101281153</v>
+        <v>7.123511515213841</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.655530091863184</v>
+        <v>4.3517602437125</v>
       </c>
       <c r="E8">
-        <v>12.58505083084777</v>
+        <v>12.84131520309069</v>
       </c>
       <c r="F8">
-        <v>23.67538968710507</v>
+        <v>18.67413323098792</v>
       </c>
       <c r="G8">
-        <v>3.624569920260346</v>
+        <v>2.076372968758109</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.46858875520209</v>
+        <v>15.71406892904781</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.414873848409</v>
+        <v>16.24858410472729</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.15025478937456</v>
+        <v>14.79483766085694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.97045032340441</v>
+        <v>7.975823418520476</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.75890646769477</v>
+        <v>4.636606496626454</v>
       </c>
       <c r="E9">
-        <v>12.91329313320009</v>
+        <v>14.51932496453166</v>
       </c>
       <c r="F9">
-        <v>23.71230700142138</v>
+        <v>20.00115933700649</v>
       </c>
       <c r="G9">
-        <v>3.619794116976586</v>
+        <v>2.063014488304022</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.45405680522614</v>
+        <v>17.67027039830453</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.05565218924631</v>
+        <v>18.66421888104542</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.03231220238075</v>
+        <v>15.25328049079363</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.112035000801859</v>
+        <v>8.603692372211425</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.832000571096542</v>
+        <v>4.834252205154402</v>
       </c>
       <c r="E10">
-        <v>13.17244973476686</v>
+        <v>15.74196427508853</v>
       </c>
       <c r="F10">
-        <v>23.77695987451093</v>
+        <v>21.04199526128661</v>
       </c>
       <c r="G10">
-        <v>3.616603379812751</v>
+        <v>2.053609060080877</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.11870008007091</v>
+        <v>18.98542430380788</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.52099331408035</v>
+        <v>20.28221464141542</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.97450598011496</v>
+        <v>15.68040105835365</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.177429290007133</v>
+        <v>8.915234224094005</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.864572995945374</v>
+        <v>4.921424877307144</v>
       </c>
       <c r="E11">
-        <v>13.29375008897548</v>
+        <v>16.37492061805052</v>
       </c>
       <c r="F11">
-        <v>23.81448606556001</v>
+        <v>21.52876441699823</v>
       </c>
       <c r="G11">
-        <v>3.615220148726813</v>
+        <v>2.049406458679731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.40747928166741</v>
+        <v>19.55695951739747</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.73052144936299</v>
+        <v>20.98512525306499</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.9545299680001</v>
+        <v>15.8955096324459</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.202312172244183</v>
+        <v>9.030825026257729</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.876804853292209</v>
+        <v>4.9540261688693</v>
       </c>
       <c r="E12">
-        <v>13.34012955915126</v>
+        <v>16.611585094837</v>
       </c>
       <c r="F12">
-        <v>23.8298574024854</v>
+        <v>21.71492799662942</v>
       </c>
       <c r="G12">
-        <v>3.614706113193372</v>
+        <v>2.047824837796045</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.51483463346793</v>
+        <v>19.7695387058546</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.80947687001712</v>
+        <v>21.2466226629438</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.94787840969867</v>
+        <v>15.98004231253348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.196948240561078</v>
+        <v>9.006035953413551</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.874175146759281</v>
+        <v>4.947023315927081</v>
       </c>
       <c r="E13">
-        <v>13.33012180535168</v>
+        <v>16.56074768612043</v>
       </c>
       <c r="F13">
-        <v>23.82649538871948</v>
+        <v>21.67475378506182</v>
       </c>
       <c r="G13">
-        <v>3.614816386482215</v>
+        <v>2.048165050364742</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.49180332692367</v>
+        <v>19.72392707346355</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.79249087601116</v>
+        <v>21.19051118949013</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.94927027978848</v>
+        <v>15.96169863712503</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.179474153265261</v>
+        <v>8.924791526090196</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.865581403208333</v>
+        <v>4.924115285235902</v>
       </c>
       <c r="E14">
-        <v>13.29755708157592</v>
+        <v>16.39445104172633</v>
       </c>
       <c r="F14">
-        <v>23.8157274473085</v>
+        <v>21.54404381754933</v>
       </c>
       <c r="G14">
-        <v>3.615177663315462</v>
+        <v>2.049276147792239</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.41635178194752</v>
+        <v>19.57452564672565</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.73702537402364</v>
+        <v>21.00673206867359</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.95396442241485</v>
+        <v>15.90240209126524</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.168785666197165</v>
+        <v>8.87471756267302</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.860303976154369</v>
+        <v>4.910029754911102</v>
       </c>
       <c r="E15">
-        <v>13.27766695312312</v>
+        <v>16.29219943031103</v>
       </c>
       <c r="F15">
-        <v>23.80928275933345</v>
+        <v>21.46421712160343</v>
       </c>
       <c r="G15">
-        <v>3.615400225886606</v>
+        <v>2.049957970503585</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36987390744017</v>
+        <v>19.48251183898391</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.7029983361613</v>
+        <v>20.89355530661096</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.95695872218528</v>
+        <v>15.86648415265023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.107779269974298</v>
+        <v>8.582997087201338</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.829857799526931</v>
+        <v>4.828498810303079</v>
       </c>
       <c r="E16">
-        <v>13.16458727547292</v>
+        <v>15.70016992757185</v>
       </c>
       <c r="F16">
-        <v>23.77467027786859</v>
+        <v>21.01044428959111</v>
       </c>
       <c r="G16">
-        <v>3.616695146291188</v>
+        <v>2.053885145677354</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.09955036265981</v>
+        <v>18.9475344683891</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.50724996854831</v>
+        <v>20.23561812757427</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.97593899976133</v>
+        <v>15.66676923553484</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.070590603235061</v>
+        <v>8.399756201152469</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.81100265362749</v>
+        <v>4.77776940457243</v>
       </c>
       <c r="E17">
-        <v>13.09605819019162</v>
+        <v>15.37498942240533</v>
       </c>
       <c r="F17">
-        <v>23.75551145240906</v>
+        <v>20.73541392956654</v>
       </c>
       <c r="G17">
-        <v>3.617506982831623</v>
+        <v>2.056313035073065</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.93020358438021</v>
+        <v>18.61248815722208</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.38655514794496</v>
+        <v>19.82356701943614</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.98920462459451</v>
+        <v>15.54964205480912</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.049294883859105</v>
+        <v>8.309077024381963</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.800094107878205</v>
+        <v>4.74833432361093</v>
       </c>
       <c r="E18">
-        <v>13.0569656419063</v>
+        <v>15.19532657672011</v>
       </c>
       <c r="F18">
-        <v>23.74525611959747</v>
+        <v>20.57847820875342</v>
       </c>
       <c r="G18">
-        <v>3.617980356856376</v>
+        <v>2.05771671546439</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.83152482484608</v>
+        <v>18.41726128432349</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.31693597836464</v>
+        <v>19.58344263053149</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.99742934774484</v>
+        <v>15.48422782405869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.042101383908445</v>
+        <v>8.279246413608417</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.796389900517979</v>
+        <v>4.738324501112759</v>
       </c>
       <c r="E19">
-        <v>13.04378649374059</v>
+        <v>15.13437746776935</v>
       </c>
       <c r="F19">
-        <v>23.7419152661943</v>
+        <v>20.52556048471482</v>
       </c>
       <c r="G19">
-        <v>3.618141738572596</v>
+        <v>2.058193250510852</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.79789649179477</v>
+        <v>18.35072886826238</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.29333244334867</v>
+        <v>19.50160181665592</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.00031610365776</v>
+        <v>15.46241266817822</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.07453981141213</v>
+        <v>8.419426122347701</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.813016431786887</v>
+        <v>4.78319634039411</v>
       </c>
       <c r="E20">
-        <v>13.10332006025461</v>
+        <v>15.40818446149673</v>
       </c>
       <c r="F20">
-        <v>23.75747187595892</v>
+        <v>20.76456214744722</v>
       </c>
       <c r="G20">
-        <v>3.617419896629497</v>
+        <v>2.05605384236927</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.94836316190331</v>
+        <v>18.6484149944603</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.39942446115658</v>
+        <v>19.86775326348989</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.98773089726815</v>
+        <v>15.5619075615574</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.184603651890002</v>
+        <v>8.948719404582613</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.868108418514015</v>
+        <v>4.930855144778874</v>
       </c>
       <c r="E21">
-        <v>13.30711039334052</v>
+        <v>16.44337747986656</v>
       </c>
       <c r="F21">
-        <v>23.81885880025322</v>
+        <v>21.58238724005152</v>
       </c>
       <c r="G21">
-        <v>3.615071282957796</v>
+        <v>2.048949534519839</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.4385683267906</v>
+        <v>19.6185128888693</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.75332807659477</v>
+        <v>21.06083873089187</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.9525608324966</v>
+        <v>15.9197348189347</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.257222838149779</v>
+        <v>9.280767023137226</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.903513859286674</v>
+        <v>5.024968459542391</v>
       </c>
       <c r="E22">
-        <v>13.44287575569237</v>
+        <v>17.12672645028059</v>
       </c>
       <c r="F22">
-        <v>23.86574180633866</v>
+        <v>22.12755366643085</v>
       </c>
       <c r="G22">
-        <v>3.613593217441117</v>
+        <v>2.044363075726864</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.74727660743911</v>
+        <v>20.23010168200679</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.98232787498014</v>
+        <v>21.81335980149906</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.93489791215674</v>
+        <v>16.17155773515123</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.218409219722908</v>
+        <v>9.10480568911813</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.88467387715712</v>
+        <v>4.974961674751671</v>
       </c>
       <c r="E23">
-        <v>13.37019432830507</v>
+        <v>16.76357622703994</v>
       </c>
       <c r="F23">
-        <v>23.84010306273787</v>
+        <v>21.83563264198006</v>
       </c>
       <c r="G23">
-        <v>3.614376900004724</v>
+        <v>2.046806165434085</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.58359478313889</v>
+        <v>19.90573516978467</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.86034118900674</v>
+        <v>21.4141860274617</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.94383669913239</v>
+        <v>16.03548566391249</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.072754109363292</v>
+        <v>8.41053843296792</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.812106215556767</v>
+        <v>4.780743662717757</v>
       </c>
       <c r="E24">
-        <v>13.10003601309691</v>
+        <v>15.39317940209319</v>
       </c>
       <c r="F24">
-        <v>23.75658320273073</v>
+        <v>20.75138054768627</v>
       </c>
       <c r="G24">
-        <v>3.617459247618859</v>
+        <v>2.056170998842638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.94015732179708</v>
+        <v>18.63218058262525</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.3936069554078</v>
+        <v>19.84778673170399</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.98839530649119</v>
+        <v>15.55635634029654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.919333207619863</v>
+        <v>7.751473035708257</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.731421373684638</v>
+        <v>4.561509531708444</v>
       </c>
       <c r="E25">
-        <v>12.82116773037839</v>
+        <v>14.07037352881385</v>
       </c>
       <c r="F25">
-        <v>23.69572255851478</v>
+        <v>19.63021749577404</v>
       </c>
       <c r="G25">
-        <v>3.621029995514723</v>
+        <v>2.066552441113521</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.19762445359406</v>
+        <v>17.1623582049894</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.88291278595871</v>
+        <v>18.03851442195895</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.05917393953174</v>
+        <v>15.11383662380373</v>
       </c>
     </row>
   </sheetData>
